--- a/docs/AIP2025 - pesos sessões.xlsx
+++ b/docs/AIP2025 - pesos sessões.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilson1\Documents\UFSC\Pós-graduação em Engenharia de Automação e Sistemas - informal\MIP WAY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766C320A-63C8-4777-AB24-9FA39671B2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E7C3C7-95B9-4C02-BDAE-E1FDC657D3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{688F9021-5FF7-4B91-8829-58D07A845DB6}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,19 +488,19 @@
         <v>12</v>
       </c>
       <c r="F2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H2">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="I2">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J2">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -520,19 +520,19 @@
         <v>11</v>
       </c>
       <c r="F3">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H3">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J3">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -552,19 +552,19 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H4">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="I4">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J4">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -584,19 +584,19 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H5">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I5">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J5">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="I6">
         <v>12</v>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <v>11</v>
